--- a/output/frequencies/VNM_women_2021.xlsx
+++ b/output/frequencies/VNM_women_2021.xlsx
@@ -571,40 +571,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>417.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.90000000000001</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>417.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.6</v>
+        <v>72</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="14">
@@ -953,40 +953,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.5</v>
+        <v>85.7</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>417.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.7</v>
+        <v>18.9</v>
       </c>
       <c r="C12" t="n">
-        <v>417.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.1</v>
+        <v>67</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="14">
@@ -1335,40 +1335,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>417.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.59999999999999</v>
+        <v>50.5</v>
       </c>
       <c r="C12" t="n">
-        <v>417.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.7</v>
+        <v>92.8</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="14">
@@ -1717,40 +1717,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.6</v>
+        <v>42.1</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>417.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.1</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>417.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.2</v>
+        <v>25.5</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="14">
@@ -2099,40 +2099,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>417.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93.3</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>417.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="14">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="C2" t="n">
         <v>1436.4</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="n">
         <v>987.2</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="C4" t="n">
         <v>449.2</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>103.6</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="C6" t="n">
         <v>187.9</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="C7" t="n">
         <v>300</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C8" t="n">
         <v>232.5</v>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="C9" t="n">
         <v>354.3</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="C10" t="n">
         <v>258.1</v>
@@ -2481,40 +2481,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>417.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.6</v>
+        <v>10.2</v>
       </c>
       <c r="C12" t="n">
-        <v>417.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="14">
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="C14" t="n">
         <v>875.2</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="C15" t="n">
         <v>277.3</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="C16" t="n">
         <v>304.2</v>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="C17" t="n">
         <v>295.8</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C18" t="n">
         <v>297.9</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C19" t="n">
         <v>261.2</v>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="C20" t="n">
         <v>17.5</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>1184.6</v>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="C22" t="n">
         <v>47.8</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="C23" t="n">
         <v>90.8</v>
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
         <v>95.7</v>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="C25" t="n">
         <v>1159.3</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="C26" t="n">
         <v>277.1</v>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="C27" t="n">
         <v>328.2</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="C28" t="n">
         <v>1108.2</v>
@@ -2863,40 +2863,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.8</v>
+        <v>50.5</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>417.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>417.8</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.8</v>
+        <v>44.5</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="14">
